--- a/Summary of data by cose and income with IF.xlsx
+++ b/Summary of data by cose and income with IF.xlsx
@@ -1,106 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shebliatrash/Desktop/AbdallahMeera/2025/Journals/Journal/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAE793D-6171-4D48-86D8-C20856A4F912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="30240" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
-  <si>
-    <t>x</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Table X. Summary of all data**</t>
   </si>
   <si>
     <t xml:space="preserve">Characteristic
 </t>
   </si>
   <si>
-    <t>original_article_cost_USD</t>
+    <t xml:space="preserve">original_article_cost_USD</t>
   </si>
   <si>
     <t xml:space="preserve">    Unknown</t>
   </si>
   <si>
-    <t>World_bank_classification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    .lower_middle_income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    .upper_middle_income</t>
+    <t xml:space="preserve">World_bank_classification</t>
   </si>
   <si>
     <t xml:space="preserve">    high_income</t>
   </si>
   <si>
-    <t>Impact_Factor_Index</t>
-  </si>
-  <si>
-    <t>JCI_JCR</t>
-  </si>
-  <si>
-    <t>TCs_JCR</t>
-  </si>
-  <si>
-    <t>CiteScore</t>
-  </si>
-  <si>
-    <t>Mean (range: Min to Max); n (%)</t>
+    <t xml:space="preserve">    lower_middle_income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    upper_middle_income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impact_Factor_Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JCI_JCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCs_JCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CiteScore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median (Q1, Q3); n (%)</t>
   </si>
   <si>
     <t xml:space="preserve">N = 534
 </t>
   </si>
   <si>
-    <t>2,668 (range: 0 to 12,690)</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>14 (2.6%)</t>
-  </si>
-  <si>
-    <t>49 (9.2%)</t>
-  </si>
-  <si>
-    <t>471 (88%)</t>
-  </si>
-  <si>
-    <t>5.3 (range: 0.0 to 232.4)</t>
-  </si>
-  <si>
-    <t>1.52 (range: 0.01 to 112.16)</t>
-  </si>
-  <si>
-    <t>9,481 (range: 0 to 347,563)</t>
-  </si>
-  <si>
-    <t>196.7 (range: 0.0 to 45,942.0)</t>
+    <t xml:space="preserve">3,000 (1,000, 3,920)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">469 (88%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14 (2.6%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">49 (9.2%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.6 (1.7, 4.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61 (0.38, 0.97)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,961 (1,098, 7,538)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0 (1.4, 6.2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -112,21 +105,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -146,103 +130,116 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="hair">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -524,159 +521,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="25.5" customWidth="1"/>
-    <col min="2" max="2" width="36.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="NA" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-    </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" ht="NA" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="NA" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="NA" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" ht="NA" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="NA" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="NA" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="NA" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" ht="NA" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" ht="NA" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="NA" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" ht="NA" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" ht="NA" customHeight="1">
+      <c r="A13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="14" ht="NA" customHeight="1">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="NA" customHeight="1">
+      <c r="A15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" ht="NA" customHeight="1">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="NA" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="10" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="5">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="5">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="5">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="6">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>12</v>
+      <c r="B18" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>